--- a/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>year</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>lccL8_pcnt</t>
+  </si>
+  <si>
+    <t>lccL12_pcnt</t>
+  </si>
+  <si>
+    <t>lccL34_pcnt</t>
+  </si>
+  <si>
+    <t>lccL56_pcnt</t>
+  </si>
+  <si>
+    <t>lccL78_pcnt</t>
   </si>
   <si>
     <t>crop_nr</t>
@@ -115,7 +127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -149,49 +161,51 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>50.42901611328125</v>
+        <v>23.808732986450195</v>
       </c>
       <c r="C2" s="1">
-        <v>49.891323089599609</v>
+        <v>22.569337844848633</v>
       </c>
       <c r="D2" s="1">
-        <v>48.288505554199219</v>
+        <v>21.236518859863281</v>
       </c>
       <c r="E2" s="1">
-        <v>48.739505767822266</v>
+        <v>20.747552871704102</v>
       </c>
       <c r="F2" s="1">
-        <v>48.621604919433594</v>
+        <v>19.813497543334961</v>
       </c>
       <c r="G2" s="1">
-        <v>48.501270294189453</v>
+        <v>19.486150741577148</v>
       </c>
       <c r="H2" s="1">
-        <v>49.218029022216797</v>
+        <v>20.075641632080078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
       <c r="C3" s="1">
-        <v>6.5072479248046875</v>
+        <v>0.89572334289550781</v>
       </c>
       <c r="D3" s="1">
-        <v>8.9216365814208984</v>
+        <v>2.2155055999755859</v>
       </c>
       <c r="E3" s="1">
-        <v>8.8869695663452148</v>
+        <v>2.1291389465332031</v>
       </c>
       <c r="F3" s="1">
-        <v>10.259430885314941</v>
+        <v>2.0520539283752441</v>
       </c>
       <c r="G3" s="1">
-        <v>10.470660209655762</v>
+        <v>2.1244494915008545</v>
       </c>
       <c r="H3" s="1">
-        <v>8.6852321624755859</v>
+        <v>1.5622385740280151</v>
       </c>
     </row>
     <row r="4">
@@ -199,25 +213,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>57.202308654785156</v>
+        <v>26.569631576538086</v>
       </c>
       <c r="C4" s="1">
-        <v>57.354106903076172</v>
+        <v>26.702285766601563</v>
       </c>
       <c r="D4" s="1">
-        <v>57.300533294677734</v>
+        <v>26.740837097167969</v>
       </c>
       <c r="E4" s="1">
-        <v>57.276966094970703</v>
+        <v>26.827751159667969</v>
       </c>
       <c r="F4" s="1">
-        <v>57.260410308837891</v>
+        <v>26.884180068969727</v>
       </c>
       <c r="G4" s="1">
-        <v>57.172016143798828</v>
+        <v>26.876932144165039</v>
       </c>
       <c r="H4" s="1">
-        <v>57.169628143310547</v>
+        <v>26.920892715454102</v>
       </c>
     </row>
     <row r="5">
@@ -225,25 +239,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>17.924442291259766</v>
+        <v>7.2834382057189941</v>
       </c>
       <c r="C5" s="1">
-        <v>18.200071334838867</v>
+        <v>7.3748483657836914</v>
       </c>
       <c r="D5" s="1">
-        <v>18.128047943115234</v>
+        <v>7.404207706451416</v>
       </c>
       <c r="E5" s="1">
-        <v>18.117889404296875</v>
+        <v>7.4696669578552246</v>
       </c>
       <c r="F5" s="1">
-        <v>18.127677917480469</v>
+        <v>7.5189175605773926</v>
       </c>
       <c r="G5" s="1">
-        <v>18.142181396484375</v>
+        <v>7.6436700820922852</v>
       </c>
       <c r="H5" s="1">
-        <v>18.110469818115234</v>
+        <v>7.7110381126403809</v>
       </c>
     </row>
     <row r="6">
@@ -251,25 +265,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>24.654327392578125</v>
+        <v>11.939199447631836</v>
       </c>
       <c r="C6" s="1">
-        <v>24.538131713867188</v>
+        <v>12.012248992919922</v>
       </c>
       <c r="D6" s="1">
-        <v>23.904706954956055</v>
+        <v>11.695799827575684</v>
       </c>
       <c r="E6" s="1">
-        <v>23.16313362121582</v>
+        <v>11.525214195251465</v>
       </c>
       <c r="F6" s="1">
-        <v>22.938819885253906</v>
+        <v>11.880176544189453</v>
       </c>
       <c r="G6" s="1">
-        <v>22.475912094116211</v>
+        <v>11.698354721069336</v>
       </c>
       <c r="H6" s="1">
-        <v>21.528669357299805</v>
+        <v>11.460453987121582</v>
       </c>
     </row>
     <row r="7">
@@ -277,25 +291,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>67.790191650390625</v>
+        <v>27.12333869934082</v>
       </c>
       <c r="C7" s="1">
-        <v>67.490509033203125</v>
+        <v>26.785150527954102</v>
       </c>
       <c r="D7" s="1">
-        <v>67.363906860351563</v>
+        <v>26.58442497253418</v>
       </c>
       <c r="E7" s="1">
-        <v>67.215248107910156</v>
+        <v>26.499387741088867</v>
       </c>
       <c r="F7" s="1">
-        <v>67.241874694824219</v>
+        <v>26.490760803222656</v>
       </c>
       <c r="G7" s="1">
-        <v>67.226593017578125</v>
+        <v>26.446939468383789</v>
       </c>
       <c r="H7" s="1">
-        <v>67.122032165527344</v>
+        <v>26.355932235717773</v>
       </c>
     </row>
     <row r="8">
@@ -303,25 +317,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>16.974483489990234</v>
+        <v>3.2756576538085938</v>
       </c>
       <c r="C8" s="1">
-        <v>17.827585220336914</v>
+        <v>3.6604063510894775</v>
       </c>
       <c r="D8" s="1">
-        <v>19.110208511352539</v>
+        <v>4.1227054595947266</v>
       </c>
       <c r="E8" s="1">
-        <v>20.923496246337891</v>
+        <v>4.8012881278991699</v>
       </c>
       <c r="F8" s="1">
-        <v>21.95854377746582</v>
+        <v>5.36041259765625</v>
       </c>
       <c r="G8" s="1">
-        <v>22.634899139404297</v>
+        <v>5.7235026359558105</v>
       </c>
       <c r="H8" s="1">
-        <v>22.934120178222656</v>
+        <v>5.9138011932373047</v>
       </c>
     </row>
     <row r="9">
@@ -329,25 +343,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>13.612756729125977</v>
+        <v>2.0755147933959961</v>
       </c>
       <c r="C9" s="1">
-        <v>13.679890632629395</v>
+        <v>2.07135009765625</v>
       </c>
       <c r="D9" s="1">
-        <v>13.648715972900391</v>
+        <v>2.0674567222595215</v>
       </c>
       <c r="E9" s="1">
-        <v>13.606703758239746</v>
+        <v>2.0594766139984131</v>
       </c>
       <c r="F9" s="1">
-        <v>13.541385650634766</v>
+        <v>2.043179988861084</v>
       </c>
       <c r="G9" s="1">
-        <v>13.517632484436035</v>
+        <v>2.0303137302398682</v>
       </c>
       <c r="H9" s="1">
-        <v>13.507176399230957</v>
+        <v>2.0237483978271484</v>
       </c>
     </row>
     <row r="10">
@@ -355,25 +369,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>41.845787048339844</v>
+        <v>20.165689468383789</v>
       </c>
       <c r="C10" s="1">
-        <v>41.858791351318359</v>
+        <v>20.124080657958984</v>
       </c>
       <c r="D10" s="1">
-        <v>41.871650695800781</v>
+        <v>20.079511642456055</v>
       </c>
       <c r="E10" s="1">
-        <v>41.891456604003906</v>
+        <v>20.025514602661133</v>
       </c>
       <c r="F10" s="1">
-        <v>41.904170989990234</v>
+        <v>19.982231140136719</v>
       </c>
       <c r="G10" s="1">
-        <v>41.899295806884766</v>
+        <v>19.938604354858398</v>
       </c>
       <c r="H10" s="1">
-        <v>41.907440185546875</v>
+        <v>19.926734924316406</v>
       </c>
     </row>
     <row r="11">
@@ -381,25 +395,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>32.295036315917969</v>
+        <v>20.268243789672852</v>
       </c>
       <c r="C11" s="1">
-        <v>32.347221374511719</v>
+        <v>20.275218963623047</v>
       </c>
       <c r="D11" s="1">
-        <v>32.424144744873047</v>
+        <v>20.259742736816406</v>
       </c>
       <c r="E11" s="1">
-        <v>32.536186218261719</v>
+        <v>20.242502212524414</v>
       </c>
       <c r="F11" s="1">
-        <v>32.616390228271484</v>
+        <v>20.230619430541992</v>
       </c>
       <c r="G11" s="1">
-        <v>32.724498748779297</v>
+        <v>20.227855682373047</v>
       </c>
       <c r="H11" s="1">
-        <v>32.749664306640625</v>
+        <v>20.221837997436523</v>
       </c>
     </row>
     <row r="12">
@@ -407,25 +421,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>23.839910507202148</v>
+        <v>14.208053588867188</v>
       </c>
       <c r="C12" s="1">
-        <v>23.834770202636719</v>
+        <v>14.195292472839355</v>
       </c>
       <c r="D12" s="1">
-        <v>23.815572738647461</v>
+        <v>14.178534507751465</v>
       </c>
       <c r="E12" s="1">
-        <v>23.793848037719727</v>
+        <v>14.152658462524414</v>
       </c>
       <c r="F12" s="1">
-        <v>23.816013336181641</v>
+        <v>14.159144401550293</v>
       </c>
       <c r="G12" s="1">
-        <v>23.824977874755859</v>
+        <v>14.148831367492676</v>
       </c>
       <c r="H12" s="1">
-        <v>23.842056274414063</v>
+        <v>14.146076202392578</v>
       </c>
     </row>
     <row r="13">
@@ -433,25 +447,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>11.2821044921875</v>
+        <v>2.4297702312469482</v>
       </c>
       <c r="C13" s="1">
-        <v>11.305440902709961</v>
+        <v>2.4267604351043701</v>
       </c>
       <c r="D13" s="1">
-        <v>11.331327438354492</v>
+        <v>2.424180269241333</v>
       </c>
       <c r="E13" s="1">
-        <v>11.396722793579102</v>
+        <v>2.4253573417663574</v>
       </c>
       <c r="F13" s="1">
-        <v>11.46475887298584</v>
+        <v>2.4269866943359375</v>
       </c>
       <c r="G13" s="1">
-        <v>11.493029594421387</v>
+        <v>2.4270312786102295</v>
       </c>
       <c r="H13" s="1">
-        <v>11.506425857543945</v>
+        <v>2.4286384582519531</v>
       </c>
     </row>
     <row r="14">
@@ -459,25 +473,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>35.785488128662109</v>
+        <v>19.815977096557617</v>
       </c>
       <c r="C14" s="1">
-        <v>35.811008453369141</v>
+        <v>19.839391708374023</v>
       </c>
       <c r="D14" s="1">
-        <v>35.843048095703125</v>
+        <v>19.867073059082031</v>
       </c>
       <c r="E14" s="1">
-        <v>35.912727355957031</v>
+        <v>19.914617538452148</v>
       </c>
       <c r="F14" s="1">
-        <v>36.031974792480469</v>
+        <v>19.976333618164063</v>
       </c>
       <c r="G14" s="1">
-        <v>36.093223571777344</v>
+        <v>20.022310256958008</v>
       </c>
       <c r="H14" s="1">
-        <v>36.122776031494141</v>
+        <v>20.039789199829102</v>
       </c>
     </row>
     <row r="15">
@@ -485,25 +499,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>42.235233306884766</v>
+        <v>19.366426467895508</v>
       </c>
       <c r="C15" s="1">
-        <v>42.357444763183594</v>
+        <v>19.401174545288086</v>
       </c>
       <c r="D15" s="1">
-        <v>42.52508544921875</v>
+        <v>19.455133438110352</v>
       </c>
       <c r="E15" s="1">
-        <v>42.655742645263672</v>
+        <v>19.514570236206055</v>
       </c>
       <c r="F15" s="1">
-        <v>42.676288604736328</v>
+        <v>19.510009765625</v>
       </c>
       <c r="G15" s="1">
-        <v>42.712837219238281</v>
+        <v>19.531063079833984</v>
       </c>
       <c r="H15" s="1">
-        <v>42.718154907226563</v>
+        <v>19.534538269042969</v>
       </c>
     </row>
     <row r="16">
@@ -511,25 +525,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>16.487949371337891</v>
+        <v>1.6703237295150757</v>
       </c>
       <c r="C16" s="1">
-        <v>16.552200317382813</v>
+        <v>1.666730523109436</v>
       </c>
       <c r="D16" s="1">
-        <v>16.842187881469727</v>
+        <v>1.6683682203292847</v>
       </c>
       <c r="E16" s="1">
-        <v>17.109691619873047</v>
+        <v>1.6653027534484863</v>
       </c>
       <c r="F16" s="1">
-        <v>17.374326705932617</v>
+        <v>1.6714942455291748</v>
       </c>
       <c r="G16" s="1">
-        <v>17.308465957641602</v>
+        <v>1.673987865447998</v>
       </c>
       <c r="H16" s="1">
-        <v>17.339273452758789</v>
+        <v>1.6786375045776367</v>
       </c>
     </row>
     <row r="17">
@@ -537,63 +551,167 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>37.194282531738281</v>
+        <v>22.241203308105469</v>
       </c>
       <c r="C17" s="1">
-        <v>82.643226623535156</v>
+        <v>22.195430755615234</v>
       </c>
       <c r="D17" s="1">
-        <v>98.097518920898438</v>
+        <v>22.146966934204102</v>
       </c>
       <c r="E17" s="1">
-        <v>94.248329162597656</v>
+        <v>22.084991455078125</v>
       </c>
       <c r="F17" s="1">
-        <v>58.597663879394531</v>
+        <v>22.025411605834961</v>
       </c>
       <c r="G17" s="1">
-        <v>94.300605773925781</v>
+        <v>21.968917846679688</v>
       </c>
       <c r="H17" s="1">
-        <v>131.964599609375</v>
+        <v>21.950483322143555</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="1">
+        <v>34.476299285888672</v>
+      </c>
+      <c r="C18" s="1">
+        <v>34.470512390136719</v>
+      </c>
+      <c r="D18" s="1">
+        <v>34.438278198242188</v>
+      </c>
+      <c r="E18" s="1">
+        <v>34.395160675048828</v>
+      </c>
       <c r="F18" s="1">
-        <v>21.301128387451172</v>
+        <v>34.389762878417969</v>
       </c>
       <c r="G18" s="1">
-        <v>19.210840225219727</v>
+        <v>34.376686096191406</v>
       </c>
       <c r="H18" s="1">
-        <v>16.514053344726563</v>
+        <v>34.367912292480469</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="1">
+        <v>22.245748519897461</v>
+      </c>
+      <c r="C19" s="1">
+        <v>22.266151428222656</v>
+      </c>
+      <c r="D19" s="1">
+        <v>22.291254043579102</v>
+      </c>
       <c r="E19" s="1">
-        <v>33972.98046875</v>
+        <v>22.339973449707031</v>
       </c>
       <c r="F19" s="1">
-        <v>44792.1640625</v>
+        <v>22.4033203125</v>
       </c>
       <c r="G19" s="1">
-        <v>58694.9609375</v>
+        <v>22.449342727661133</v>
       </c>
       <c r="H19" s="1">
-        <v>77083.59375</v>
+        <v>22.468427658081055</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>21.036750793457031</v>
+      </c>
+      <c r="C20" s="1">
+        <v>21.067905426025391</v>
+      </c>
+      <c r="D20" s="1">
+        <v>21.123502731323242</v>
+      </c>
+      <c r="E20" s="1">
+        <v>21.179872512817383</v>
+      </c>
+      <c r="F20" s="1">
+        <v>21.181503295898438</v>
+      </c>
+      <c r="G20" s="1">
+        <v>21.205051422119141</v>
+      </c>
+      <c r="H20" s="1">
+        <v>21.213176727294922</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>61.424644470214844</v>
+      </c>
+      <c r="C21" s="1">
+        <v>109.46453094482422</v>
+      </c>
+      <c r="D21" s="1">
+        <v>128.40451049804688</v>
+      </c>
+      <c r="E21" s="1">
+        <v>121.93305969238281</v>
+      </c>
+      <c r="F21" s="1">
+        <v>86.59814453125</v>
+      </c>
+      <c r="G21" s="1">
+        <v>92.546066284179688</v>
+      </c>
+      <c r="H21" s="1">
+        <v>121.26715850830078</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <v>19.384183883666992</v>
+      </c>
+      <c r="G22" s="1">
+        <v>18.032852172851563</v>
+      </c>
+      <c r="H22" s="1">
+        <v>15.619283676147461</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>26631.427734375</v>
+      </c>
+      <c r="F23" s="1">
+        <v>33615.79296875</v>
+      </c>
+      <c r="G23" s="1">
+        <v>53730.08984375</v>
+      </c>
+      <c r="H23" s="1">
+        <v>50773.92578125</v>
       </c>
     </row>
   </sheetData>

--- a/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>year</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>Forestland_pcnt</t>
-  </si>
-  <si>
-    <t>Otherland_pcnt</t>
   </si>
   <si>
     <t>Pastureland_pcnt</t>
@@ -127,7 +124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -161,25 +158,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>23.808732986450195</v>
+        <v>25.679052352905273</v>
       </c>
       <c r="C2" s="1">
-        <v>22.569337844848633</v>
+        <v>24.366315841674805</v>
       </c>
       <c r="D2" s="1">
-        <v>21.236518859863281</v>
+        <v>22.934646606445313</v>
       </c>
       <c r="E2" s="1">
-        <v>20.747552871704102</v>
+        <v>22.422433853149414</v>
       </c>
       <c r="F2" s="1">
-        <v>19.813497543334961</v>
+        <v>21.424379348754883</v>
       </c>
       <c r="G2" s="1">
-        <v>19.486150741577148</v>
+        <v>21.098880767822266</v>
       </c>
       <c r="H2" s="1">
-        <v>20.075641632080078</v>
+        <v>21.753026962280273</v>
       </c>
     </row>
     <row r="3">
@@ -190,22 +187,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.89572334289550781</v>
+        <v>0.96704113483428955</v>
       </c>
       <c r="D3" s="1">
-        <v>2.2155055999755859</v>
+        <v>2.3926632404327393</v>
       </c>
       <c r="E3" s="1">
-        <v>2.1291389465332031</v>
+        <v>2.3010172843933105</v>
       </c>
       <c r="F3" s="1">
-        <v>2.0520539283752441</v>
+        <v>2.2188904285430908</v>
       </c>
       <c r="G3" s="1">
-        <v>2.1244494915008545</v>
+        <v>2.3002748489379883</v>
       </c>
       <c r="H3" s="1">
-        <v>1.5622385740280151</v>
+        <v>1.6927685737609863</v>
       </c>
     </row>
     <row r="4">
@@ -213,25 +210,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>26.569631576538086</v>
+        <v>28.656833648681641</v>
       </c>
       <c r="C4" s="1">
-        <v>26.702285766601563</v>
+        <v>28.828330993652344</v>
       </c>
       <c r="D4" s="1">
-        <v>26.740837097167969</v>
+        <v>28.879106521606445</v>
       </c>
       <c r="E4" s="1">
-        <v>26.827751159667969</v>
+        <v>28.993467330932617</v>
       </c>
       <c r="F4" s="1">
-        <v>26.884180068969727</v>
+        <v>29.069923400878906</v>
       </c>
       <c r="G4" s="1">
-        <v>26.876932144165039</v>
+        <v>29.101343154907227</v>
       </c>
       <c r="H4" s="1">
-        <v>26.920892715454102</v>
+        <v>29.170219421386719</v>
       </c>
     </row>
     <row r="5">
@@ -239,25 +236,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7.2834382057189941</v>
+        <v>12.877095222473145</v>
       </c>
       <c r="C5" s="1">
-        <v>7.3748483657836914</v>
+        <v>12.968668937683105</v>
       </c>
       <c r="D5" s="1">
-        <v>7.404207706451416</v>
+        <v>12.631027221679688</v>
       </c>
       <c r="E5" s="1">
-        <v>7.4696669578552246</v>
+        <v>12.455606460571289</v>
       </c>
       <c r="F5" s="1">
-        <v>7.5189175605773926</v>
+        <v>12.846061706542969</v>
       </c>
       <c r="G5" s="1">
-        <v>7.6436700820922852</v>
+        <v>12.666543960571289</v>
       </c>
       <c r="H5" s="1">
-        <v>7.7110381126403809</v>
+        <v>12.418011665344238</v>
       </c>
     </row>
     <row r="6">
@@ -265,25 +262,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11.939199447631836</v>
+        <v>29.254037857055664</v>
       </c>
       <c r="C6" s="1">
-        <v>12.012248992919922</v>
+        <v>28.917793273925781</v>
       </c>
       <c r="D6" s="1">
-        <v>11.695799827575684</v>
+        <v>28.710187911987305</v>
       </c>
       <c r="E6" s="1">
-        <v>11.525214195251465</v>
+        <v>28.638595581054688</v>
       </c>
       <c r="F6" s="1">
-        <v>11.880176544189453</v>
+        <v>28.64451789855957</v>
       </c>
       <c r="G6" s="1">
-        <v>11.698354721069336</v>
+        <v>28.635763168334961</v>
       </c>
       <c r="H6" s="1">
-        <v>11.460453987121582</v>
+        <v>28.558055877685547</v>
       </c>
     </row>
     <row r="7">
@@ -291,25 +288,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>27.12333869934082</v>
+        <v>3.5329799652099609</v>
       </c>
       <c r="C7" s="1">
-        <v>26.785150527954102</v>
+        <v>3.9518492221832275</v>
       </c>
       <c r="D7" s="1">
-        <v>26.58442497253418</v>
+        <v>4.4523677825927734</v>
       </c>
       <c r="E7" s="1">
-        <v>26.499387741088867</v>
+        <v>5.188880443572998</v>
       </c>
       <c r="F7" s="1">
-        <v>26.490760803222656</v>
+        <v>5.7962260246276855</v>
       </c>
       <c r="G7" s="1">
-        <v>26.446939468383789</v>
+        <v>6.1971955299377441</v>
       </c>
       <c r="H7" s="1">
-        <v>26.355932235717773</v>
+        <v>6.4079184532165527</v>
       </c>
     </row>
     <row r="8">
@@ -317,25 +314,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>3.2756576538085938</v>
+        <v>2.0755147933959961</v>
       </c>
       <c r="C8" s="1">
-        <v>3.6604063510894775</v>
+        <v>2.07135009765625</v>
       </c>
       <c r="D8" s="1">
-        <v>4.1227054595947266</v>
+        <v>2.0674567222595215</v>
       </c>
       <c r="E8" s="1">
-        <v>4.8012881278991699</v>
+        <v>2.0594766139984131</v>
       </c>
       <c r="F8" s="1">
-        <v>5.36041259765625</v>
+        <v>2.043179988861084</v>
       </c>
       <c r="G8" s="1">
-        <v>5.7235026359558105</v>
+        <v>2.0303137302398682</v>
       </c>
       <c r="H8" s="1">
-        <v>5.9138011932373047</v>
+        <v>2.0237483978271484</v>
       </c>
     </row>
     <row r="9">
@@ -343,25 +340,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>2.0755147933959961</v>
+        <v>20.165689468383789</v>
       </c>
       <c r="C9" s="1">
-        <v>2.07135009765625</v>
+        <v>20.124080657958984</v>
       </c>
       <c r="D9" s="1">
-        <v>2.0674567222595215</v>
+        <v>20.079511642456055</v>
       </c>
       <c r="E9" s="1">
-        <v>2.0594766139984131</v>
+        <v>20.025514602661133</v>
       </c>
       <c r="F9" s="1">
-        <v>2.043179988861084</v>
+        <v>19.982231140136719</v>
       </c>
       <c r="G9" s="1">
-        <v>2.0303137302398682</v>
+        <v>19.938604354858398</v>
       </c>
       <c r="H9" s="1">
-        <v>2.0237483978271484</v>
+        <v>19.926734924316406</v>
       </c>
     </row>
     <row r="10">
@@ -369,25 +366,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>20.165689468383789</v>
+        <v>20.268243789672852</v>
       </c>
       <c r="C10" s="1">
-        <v>20.124080657958984</v>
+        <v>20.275218963623047</v>
       </c>
       <c r="D10" s="1">
-        <v>20.079511642456055</v>
+        <v>20.259742736816406</v>
       </c>
       <c r="E10" s="1">
-        <v>20.025514602661133</v>
+        <v>20.242502212524414</v>
       </c>
       <c r="F10" s="1">
-        <v>19.982231140136719</v>
+        <v>20.230619430541992</v>
       </c>
       <c r="G10" s="1">
-        <v>19.938604354858398</v>
+        <v>20.227855682373047</v>
       </c>
       <c r="H10" s="1">
-        <v>19.926734924316406</v>
+        <v>20.221837997436523</v>
       </c>
     </row>
     <row r="11">
@@ -395,25 +392,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>20.268243789672852</v>
+        <v>14.208053588867188</v>
       </c>
       <c r="C11" s="1">
-        <v>20.275218963623047</v>
+        <v>14.195292472839355</v>
       </c>
       <c r="D11" s="1">
-        <v>20.259742736816406</v>
+        <v>14.178534507751465</v>
       </c>
       <c r="E11" s="1">
-        <v>20.242502212524414</v>
+        <v>14.152658462524414</v>
       </c>
       <c r="F11" s="1">
-        <v>20.230619430541992</v>
+        <v>14.159144401550293</v>
       </c>
       <c r="G11" s="1">
-        <v>20.227855682373047</v>
+        <v>14.148831367492676</v>
       </c>
       <c r="H11" s="1">
-        <v>20.221837997436523</v>
+        <v>14.146076202392578</v>
       </c>
     </row>
     <row r="12">
@@ -421,25 +418,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>14.208053588867188</v>
+        <v>2.4297702312469482</v>
       </c>
       <c r="C12" s="1">
-        <v>14.195292472839355</v>
+        <v>2.4267604351043701</v>
       </c>
       <c r="D12" s="1">
-        <v>14.178534507751465</v>
+        <v>2.424180269241333</v>
       </c>
       <c r="E12" s="1">
-        <v>14.152658462524414</v>
+        <v>2.4253573417663574</v>
       </c>
       <c r="F12" s="1">
-        <v>14.159144401550293</v>
+        <v>2.4269866943359375</v>
       </c>
       <c r="G12" s="1">
-        <v>14.148831367492676</v>
+        <v>2.4270312786102295</v>
       </c>
       <c r="H12" s="1">
-        <v>14.146076202392578</v>
+        <v>2.4286384582519531</v>
       </c>
     </row>
     <row r="13">
@@ -447,25 +444,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>2.4297702312469482</v>
+        <v>19.815977096557617</v>
       </c>
       <c r="C13" s="1">
-        <v>2.4267604351043701</v>
+        <v>19.839391708374023</v>
       </c>
       <c r="D13" s="1">
-        <v>2.424180269241333</v>
+        <v>19.867073059082031</v>
       </c>
       <c r="E13" s="1">
-        <v>2.4253573417663574</v>
+        <v>19.914617538452148</v>
       </c>
       <c r="F13" s="1">
-        <v>2.4269866943359375</v>
+        <v>19.976333618164063</v>
       </c>
       <c r="G13" s="1">
-        <v>2.4270312786102295</v>
+        <v>20.022310256958008</v>
       </c>
       <c r="H13" s="1">
-        <v>2.4286384582519531</v>
+        <v>20.039789199829102</v>
       </c>
     </row>
     <row r="14">
@@ -473,25 +470,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>19.815977096557617</v>
+        <v>19.366426467895508</v>
       </c>
       <c r="C14" s="1">
-        <v>19.839391708374023</v>
+        <v>19.401174545288086</v>
       </c>
       <c r="D14" s="1">
-        <v>19.867073059082031</v>
+        <v>19.455133438110352</v>
       </c>
       <c r="E14" s="1">
-        <v>19.914617538452148</v>
+        <v>19.514570236206055</v>
       </c>
       <c r="F14" s="1">
-        <v>19.976333618164063</v>
+        <v>19.510009765625</v>
       </c>
       <c r="G14" s="1">
-        <v>20.022310256958008</v>
+        <v>19.531063079833984</v>
       </c>
       <c r="H14" s="1">
-        <v>20.039789199829102</v>
+        <v>19.534538269042969</v>
       </c>
     </row>
     <row r="15">
@@ -499,25 +496,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>19.366426467895508</v>
+        <v>1.6703237295150757</v>
       </c>
       <c r="C15" s="1">
-        <v>19.401174545288086</v>
+        <v>1.666730523109436</v>
       </c>
       <c r="D15" s="1">
-        <v>19.455133438110352</v>
+        <v>1.6683682203292847</v>
       </c>
       <c r="E15" s="1">
-        <v>19.514570236206055</v>
+        <v>1.6653027534484863</v>
       </c>
       <c r="F15" s="1">
-        <v>19.510009765625</v>
+        <v>1.6714942455291748</v>
       </c>
       <c r="G15" s="1">
-        <v>19.531063079833984</v>
+        <v>1.673987865447998</v>
       </c>
       <c r="H15" s="1">
-        <v>19.534538269042969</v>
+        <v>1.6786375045776367</v>
       </c>
     </row>
     <row r="16">
@@ -525,25 +522,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1.6703237295150757</v>
+        <v>22.241203308105469</v>
       </c>
       <c r="C16" s="1">
-        <v>1.666730523109436</v>
+        <v>22.195430755615234</v>
       </c>
       <c r="D16" s="1">
-        <v>1.6683682203292847</v>
+        <v>22.146966934204102</v>
       </c>
       <c r="E16" s="1">
-        <v>1.6653027534484863</v>
+        <v>22.084991455078125</v>
       </c>
       <c r="F16" s="1">
-        <v>1.6714942455291748</v>
+        <v>22.025411605834961</v>
       </c>
       <c r="G16" s="1">
-        <v>1.673987865447998</v>
+        <v>21.968917846679688</v>
       </c>
       <c r="H16" s="1">
-        <v>1.6786375045776367</v>
+        <v>21.950483322143555</v>
       </c>
     </row>
     <row r="17">
@@ -551,25 +548,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>22.241203308105469</v>
+        <v>34.476299285888672</v>
       </c>
       <c r="C17" s="1">
-        <v>22.195430755615234</v>
+        <v>34.470512390136719</v>
       </c>
       <c r="D17" s="1">
-        <v>22.146966934204102</v>
+        <v>34.438278198242188</v>
       </c>
       <c r="E17" s="1">
-        <v>22.084991455078125</v>
+        <v>34.395160675048828</v>
       </c>
       <c r="F17" s="1">
-        <v>22.025411605834961</v>
+        <v>34.389762878417969</v>
       </c>
       <c r="G17" s="1">
-        <v>21.968917846679688</v>
+        <v>34.376686096191406</v>
       </c>
       <c r="H17" s="1">
-        <v>21.950483322143555</v>
+        <v>34.367912292480469</v>
       </c>
     </row>
     <row r="18">
@@ -577,25 +574,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>34.476299285888672</v>
+        <v>22.245748519897461</v>
       </c>
       <c r="C18" s="1">
-        <v>34.470512390136719</v>
+        <v>22.266151428222656</v>
       </c>
       <c r="D18" s="1">
-        <v>34.438278198242188</v>
+        <v>22.291254043579102</v>
       </c>
       <c r="E18" s="1">
-        <v>34.395160675048828</v>
+        <v>22.339973449707031</v>
       </c>
       <c r="F18" s="1">
-        <v>34.389762878417969</v>
+        <v>22.4033203125</v>
       </c>
       <c r="G18" s="1">
-        <v>34.376686096191406</v>
+        <v>22.449342727661133</v>
       </c>
       <c r="H18" s="1">
-        <v>34.367912292480469</v>
+        <v>22.468427658081055</v>
       </c>
     </row>
     <row r="19">
@@ -603,25 +600,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>22.245748519897461</v>
+        <v>21.036750793457031</v>
       </c>
       <c r="C19" s="1">
-        <v>22.266151428222656</v>
+        <v>21.067905426025391</v>
       </c>
       <c r="D19" s="1">
-        <v>22.291254043579102</v>
+        <v>21.123502731323242</v>
       </c>
       <c r="E19" s="1">
-        <v>22.339973449707031</v>
+        <v>21.179872512817383</v>
       </c>
       <c r="F19" s="1">
-        <v>22.4033203125</v>
+        <v>21.181503295898438</v>
       </c>
       <c r="G19" s="1">
-        <v>22.449342727661133</v>
+        <v>21.205051422119141</v>
       </c>
       <c r="H19" s="1">
-        <v>22.468427658081055</v>
+        <v>21.213176727294922</v>
       </c>
     </row>
     <row r="20">
@@ -629,51 +626,43 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>21.036750793457031</v>
+        <v>58.686473846435547</v>
       </c>
       <c r="C20" s="1">
-        <v>21.067905426025391</v>
+        <v>105.58715057373047</v>
       </c>
       <c r="D20" s="1">
-        <v>21.123502731323242</v>
+        <v>124.09786224365234</v>
       </c>
       <c r="E20" s="1">
-        <v>21.179872512817383</v>
+        <v>119.66957855224609</v>
       </c>
       <c r="F20" s="1">
-        <v>21.181503295898438</v>
+        <v>84.831069946289063</v>
       </c>
       <c r="G20" s="1">
-        <v>21.205051422119141</v>
+        <v>89.905418395996094</v>
       </c>
       <c r="H20" s="1">
-        <v>21.213176727294922</v>
+        <v>118.20491027832031</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>61.424644470214844</v>
-      </c>
-      <c r="C21" s="1">
-        <v>109.46453094482422</v>
-      </c>
-      <c r="D21" s="1">
-        <v>128.40451049804688</v>
-      </c>
-      <c r="E21" s="1">
-        <v>121.93305969238281</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1">
-        <v>86.59814453125</v>
+        <v>19.238698959350586</v>
       </c>
       <c r="G21" s="1">
-        <v>92.546066284179688</v>
+        <v>17.943864822387695</v>
       </c>
       <c r="H21" s="1">
-        <v>121.26715850830078</v>
+        <v>15.511234283447266</v>
       </c>
     </row>
     <row r="22">
@@ -683,35 +672,17 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>26516.9375</v>
+      </c>
       <c r="F22" s="1">
-        <v>19.384183883666992</v>
+        <v>33384.97265625</v>
       </c>
       <c r="G22" s="1">
-        <v>18.032852172851563</v>
+        <v>53524.9765625</v>
       </c>
       <c r="H22" s="1">
-        <v>15.619283676147461</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>26631.427734375</v>
-      </c>
-      <c r="F23" s="1">
-        <v>33615.79296875</v>
-      </c>
-      <c r="G23" s="1">
-        <v>53730.08984375</v>
-      </c>
-      <c r="H23" s="1">
-        <v>50773.92578125</v>
+        <v>50263.3671875</v>
       </c>
     </row>
   </sheetData>

--- a/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>year</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>urban_nr</t>
+  </si>
+  <si>
+    <t>lccNA_pcnt</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -346,7 +349,7 @@
         <v>20.124080657958984</v>
       </c>
       <c r="D9" s="1">
-        <v>20.079511642456055</v>
+        <v>20.079509735107422</v>
       </c>
       <c r="E9" s="1">
         <v>20.025514602661133</v>
@@ -606,7 +609,7 @@
         <v>21.067905426025391</v>
       </c>
       <c r="D19" s="1">
-        <v>21.123502731323242</v>
+        <v>21.123500823974609</v>
       </c>
       <c r="E19" s="1">
         <v>21.179872512817383</v>
@@ -632,10 +635,10 @@
         <v>105.58715057373047</v>
       </c>
       <c r="D20" s="1">
-        <v>124.09786224365234</v>
+        <v>124.09785461425781</v>
       </c>
       <c r="E20" s="1">
-        <v>119.66957855224609</v>
+        <v>119.66958618164063</v>
       </c>
       <c r="F20" s="1">
         <v>84.831069946289063</v>
@@ -685,6 +688,32 @@
         <v>50263.3671875</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>36.570178985595703</v>
+      </c>
+      <c r="C23" s="1">
+        <v>37.286026000976563</v>
+      </c>
+      <c r="D23" s="1">
+        <v>38.187744140625</v>
+      </c>
+      <c r="E23" s="1">
+        <v>39.310688018798828</v>
+      </c>
+      <c r="F23" s="1">
+        <v>40.399639129638672</v>
+      </c>
+      <c r="G23" s="1">
+        <v>41.062961578369141</v>
+      </c>
+      <c r="H23" s="1">
+        <v>41.443065643310547</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
@@ -36,6 +36,9 @@
     <t>Urbanland_pcnt</t>
   </si>
   <si>
+    <t>lccNA_pcnt</t>
+  </si>
+  <si>
     <t>lccL1_pcnt</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
   </si>
   <si>
     <t>urban_nr</t>
-  </si>
-  <si>
-    <t>lccNA_pcnt</t>
   </si>
 </sst>
 </file>
@@ -161,25 +161,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>25.679052352905273</v>
+        <v>29.423917770385742</v>
       </c>
       <c r="C2" s="1">
-        <v>24.366315841674805</v>
+        <v>28.46931266784668</v>
       </c>
       <c r="D2" s="1">
-        <v>22.934646606445313</v>
+        <v>26.820795059204102</v>
       </c>
       <c r="E2" s="1">
-        <v>22.422433853149414</v>
+        <v>26.452816009521484</v>
       </c>
       <c r="F2" s="1">
-        <v>21.424379348754883</v>
+        <v>25.901998519897461</v>
       </c>
       <c r="G2" s="1">
-        <v>21.098880767822266</v>
+        <v>25.332622528076172</v>
       </c>
       <c r="H2" s="1">
-        <v>21.753026962280273</v>
+        <v>25.569713592529297</v>
       </c>
     </row>
     <row r="3">
@@ -213,7 +213,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>28.656833648681641</v>
+        <v>28.656835556030273</v>
       </c>
       <c r="C4" s="1">
         <v>28.828330993652344</v>
@@ -239,25 +239,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>12.877095222473145</v>
+        <v>9.1322298049926758</v>
       </c>
       <c r="C5" s="1">
-        <v>12.968668937683105</v>
+        <v>8.8656721115112305</v>
       </c>
       <c r="D5" s="1">
-        <v>12.631027221679688</v>
+        <v>8.7448797225952148</v>
       </c>
       <c r="E5" s="1">
-        <v>12.455606460571289</v>
+        <v>8.4252233505249023</v>
       </c>
       <c r="F5" s="1">
-        <v>12.846061706542969</v>
+        <v>8.3684415817260742</v>
       </c>
       <c r="G5" s="1">
-        <v>12.666543960571289</v>
+        <v>8.4328022003173828</v>
       </c>
       <c r="H5" s="1">
-        <v>12.418011665344238</v>
+        <v>8.601323127746582</v>
       </c>
     </row>
     <row r="6">
@@ -317,25 +317,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2.0755147933959961</v>
+        <v>17.067520141601563</v>
       </c>
       <c r="C8" s="1">
-        <v>2.07135009765625</v>
+        <v>17.499200820922852</v>
       </c>
       <c r="D8" s="1">
-        <v>2.0674567222595215</v>
+        <v>18.012392044067383</v>
       </c>
       <c r="E8" s="1">
-        <v>2.0594766139984131</v>
+        <v>18.674884796142578</v>
       </c>
       <c r="F8" s="1">
-        <v>2.043179988861084</v>
+        <v>19.219446182250977</v>
       </c>
       <c r="G8" s="1">
-        <v>2.0303137302398682</v>
+        <v>19.564908981323242</v>
       </c>
       <c r="H8" s="1">
-        <v>2.0237483978271484</v>
+        <v>19.762445449829102</v>
       </c>
     </row>
     <row r="9">
@@ -343,25 +343,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>20.165689468383789</v>
+        <v>1.8498022556304932</v>
       </c>
       <c r="C9" s="1">
-        <v>20.124080657958984</v>
+        <v>1.84026038646698</v>
       </c>
       <c r="D9" s="1">
-        <v>20.079509735107422</v>
+        <v>1.8283553123474121</v>
       </c>
       <c r="E9" s="1">
-        <v>20.025514602661133</v>
+        <v>1.8074460029602051</v>
       </c>
       <c r="F9" s="1">
-        <v>19.982231140136719</v>
+        <v>1.7846007347106934</v>
       </c>
       <c r="G9" s="1">
-        <v>19.938604354858398</v>
+        <v>1.7682667970657349</v>
       </c>
       <c r="H9" s="1">
-        <v>19.926734924316406</v>
+        <v>1.7579337358474731</v>
       </c>
     </row>
     <row r="10">
@@ -369,25 +369,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>20.268243789672852</v>
+        <v>18.159006118774414</v>
       </c>
       <c r="C10" s="1">
-        <v>20.275218963623047</v>
+        <v>18.041778564453125</v>
       </c>
       <c r="D10" s="1">
-        <v>20.259742736816406</v>
+        <v>17.902816772460938</v>
       </c>
       <c r="E10" s="1">
-        <v>20.242502212524414</v>
+        <v>17.714702606201172</v>
       </c>
       <c r="F10" s="1">
-        <v>20.230619430541992</v>
+        <v>17.562139511108398</v>
       </c>
       <c r="G10" s="1">
-        <v>20.227855682373047</v>
+        <v>17.446975708007813</v>
       </c>
       <c r="H10" s="1">
-        <v>20.221837997436523</v>
+        <v>17.393085479736328</v>
       </c>
     </row>
     <row r="11">
@@ -395,25 +395,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>14.208053588867188</v>
+        <v>17.733888626098633</v>
       </c>
       <c r="C11" s="1">
-        <v>14.195292472839355</v>
+        <v>17.652189254760742</v>
       </c>
       <c r="D11" s="1">
-        <v>14.178534507751465</v>
+        <v>17.539192199707031</v>
       </c>
       <c r="E11" s="1">
-        <v>14.152658462524414</v>
+        <v>17.388608932495117</v>
       </c>
       <c r="F11" s="1">
-        <v>14.159144401550293</v>
+        <v>17.27308464050293</v>
       </c>
       <c r="G11" s="1">
-        <v>14.148831367492676</v>
+        <v>17.203401565551758</v>
       </c>
       <c r="H11" s="1">
-        <v>14.146076202392578</v>
+        <v>17.158885955810547</v>
       </c>
     </row>
     <row r="12">
@@ -421,25 +421,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>2.4297702312469482</v>
+        <v>11.981807708740234</v>
       </c>
       <c r="C12" s="1">
-        <v>2.4267604351043701</v>
+        <v>11.912814140319824</v>
       </c>
       <c r="D12" s="1">
-        <v>2.424180269241333</v>
+        <v>11.827886581420898</v>
       </c>
       <c r="E12" s="1">
-        <v>2.4253573417663574</v>
+        <v>11.712187767028809</v>
       </c>
       <c r="F12" s="1">
-        <v>2.4269866943359375</v>
+        <v>11.631661415100098</v>
       </c>
       <c r="G12" s="1">
-        <v>2.4270312786102295</v>
+        <v>11.573915481567383</v>
       </c>
       <c r="H12" s="1">
-        <v>2.4286384582519531</v>
+        <v>11.540319442749023</v>
       </c>
     </row>
     <row r="13">
@@ -447,25 +447,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>19.815977096557617</v>
+        <v>2.0786952972412109</v>
       </c>
       <c r="C13" s="1">
-        <v>19.839391708374023</v>
+        <v>2.0652568340301514</v>
       </c>
       <c r="D13" s="1">
-        <v>19.867073059082031</v>
+        <v>2.0497534275054932</v>
       </c>
       <c r="E13" s="1">
-        <v>19.914617538452148</v>
+        <v>2.0334107875823975</v>
       </c>
       <c r="F13" s="1">
-        <v>19.976333618164063</v>
+        <v>2.022348165512085</v>
       </c>
       <c r="G13" s="1">
-        <v>20.022310256958008</v>
+        <v>2.0134410858154297</v>
       </c>
       <c r="H13" s="1">
-        <v>20.039789199829102</v>
+        <v>2.0098962783813477</v>
       </c>
     </row>
     <row r="14">
@@ -473,25 +473,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>19.366426467895508</v>
+        <v>15.680683135986328</v>
       </c>
       <c r="C14" s="1">
-        <v>19.401174545288086</v>
+        <v>15.60090446472168</v>
       </c>
       <c r="D14" s="1">
-        <v>19.455133438110352</v>
+        <v>15.528441429138184</v>
       </c>
       <c r="E14" s="1">
-        <v>19.514570236206055</v>
+        <v>15.440787315368652</v>
       </c>
       <c r="F14" s="1">
-        <v>19.510009765625</v>
+        <v>15.376119613647461</v>
       </c>
       <c r="G14" s="1">
-        <v>19.531063079833984</v>
+        <v>15.346802711486816</v>
       </c>
       <c r="H14" s="1">
-        <v>19.534538269042969</v>
+        <v>15.323835372924805</v>
       </c>
     </row>
     <row r="15">
@@ -499,25 +499,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1.6703237295150757</v>
+        <v>14.467199325561523</v>
       </c>
       <c r="C15" s="1">
-        <v>1.666730523109436</v>
+        <v>14.41319465637207</v>
       </c>
       <c r="D15" s="1">
-        <v>1.6683682203292847</v>
+        <v>14.346407890319824</v>
       </c>
       <c r="E15" s="1">
-        <v>1.6653027534484863</v>
+        <v>14.276509284973145</v>
       </c>
       <c r="F15" s="1">
-        <v>1.6714942455291748</v>
+        <v>14.185309410095215</v>
       </c>
       <c r="G15" s="1">
-        <v>1.673987865447998</v>
+        <v>14.138824462890625</v>
       </c>
       <c r="H15" s="1">
-        <v>1.6786375045776367</v>
+        <v>14.109062194824219</v>
       </c>
     </row>
     <row r="16">
@@ -525,25 +525,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>22.241203308105469</v>
+        <v>0.98139834403991699</v>
       </c>
       <c r="C16" s="1">
-        <v>22.195430755615234</v>
+        <v>0.97440153360366821</v>
       </c>
       <c r="D16" s="1">
-        <v>22.146966934204102</v>
+        <v>0.96475410461425781</v>
       </c>
       <c r="E16" s="1">
-        <v>22.084991455078125</v>
+        <v>0.95146316289901733</v>
       </c>
       <c r="F16" s="1">
-        <v>22.025411605834961</v>
+        <v>0.9452897310256958</v>
       </c>
       <c r="G16" s="1">
-        <v>21.968917846679688</v>
+        <v>0.94346398115158081</v>
       </c>
       <c r="H16" s="1">
-        <v>21.950483322143555</v>
+        <v>0.94453674554824829</v>
       </c>
     </row>
     <row r="17">
@@ -551,25 +551,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>34.476299285888672</v>
+        <v>20.008808135986328</v>
       </c>
       <c r="C17" s="1">
-        <v>34.470512390136719</v>
+        <v>19.882038116455078</v>
       </c>
       <c r="D17" s="1">
-        <v>34.438278198242188</v>
+        <v>19.731172561645508</v>
       </c>
       <c r="E17" s="1">
-        <v>34.395160675048828</v>
+        <v>19.522148132324219</v>
       </c>
       <c r="F17" s="1">
-        <v>34.389762878417969</v>
+        <v>19.34674072265625</v>
       </c>
       <c r="G17" s="1">
-        <v>34.376686096191406</v>
+        <v>19.215242385864258</v>
       </c>
       <c r="H17" s="1">
-        <v>34.367912292480469</v>
+        <v>19.151020050048828</v>
       </c>
     </row>
     <row r="18">
@@ -577,25 +577,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>22.245748519897461</v>
+        <v>29.715694427490234</v>
       </c>
       <c r="C18" s="1">
-        <v>22.266151428222656</v>
+        <v>29.56500244140625</v>
       </c>
       <c r="D18" s="1">
-        <v>22.291254043579102</v>
+        <v>29.36707878112793</v>
       </c>
       <c r="E18" s="1">
-        <v>22.339973449707031</v>
+        <v>29.100795745849609</v>
       </c>
       <c r="F18" s="1">
-        <v>22.4033203125</v>
+        <v>28.904747009277344</v>
       </c>
       <c r="G18" s="1">
-        <v>22.449342727661133</v>
+        <v>28.777317047119141</v>
       </c>
       <c r="H18" s="1">
-        <v>22.468427658081055</v>
+        <v>28.69920539855957</v>
       </c>
     </row>
     <row r="19">
@@ -603,25 +603,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>21.036750793457031</v>
+        <v>17.759378433227539</v>
       </c>
       <c r="C19" s="1">
-        <v>21.067905426025391</v>
+        <v>17.666162490844727</v>
       </c>
       <c r="D19" s="1">
-        <v>21.123500823974609</v>
+        <v>17.578193664550781</v>
       </c>
       <c r="E19" s="1">
-        <v>21.179872512817383</v>
+        <v>17.474197387695313</v>
       </c>
       <c r="F19" s="1">
-        <v>21.181503295898438</v>
+        <v>17.398468017578125</v>
       </c>
       <c r="G19" s="1">
-        <v>21.205051422119141</v>
+        <v>17.360244750976563</v>
       </c>
       <c r="H19" s="1">
-        <v>21.213176727294922</v>
+        <v>17.333730697631836</v>
       </c>
     </row>
     <row r="20">
@@ -629,43 +629,51 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>58.686473846435547</v>
+        <v>15.448596954345703</v>
       </c>
       <c r="C20" s="1">
-        <v>105.58715057373047</v>
+        <v>15.387596130371094</v>
       </c>
       <c r="D20" s="1">
-        <v>124.09785461425781</v>
+        <v>15.311161994934082</v>
       </c>
       <c r="E20" s="1">
-        <v>119.66958618164063</v>
+        <v>15.227972030639648</v>
       </c>
       <c r="F20" s="1">
-        <v>84.831069946289063</v>
+        <v>15.130599021911621</v>
       </c>
       <c r="G20" s="1">
-        <v>89.905418395996094</v>
+        <v>15.082287788391113</v>
       </c>
       <c r="H20" s="1">
-        <v>118.20491027832031</v>
+        <v>15.05359935760498</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="1">
+        <v>58.686473846435547</v>
+      </c>
+      <c r="C21" s="1">
+        <v>105.58715057373047</v>
+      </c>
+      <c r="D21" s="1">
+        <v>124.09785461425781</v>
+      </c>
+      <c r="E21" s="1">
+        <v>119.66958618164063</v>
+      </c>
       <c r="F21" s="1">
-        <v>19.238698959350586</v>
+        <v>84.831069946289063</v>
       </c>
       <c r="G21" s="1">
-        <v>17.943864822387695</v>
+        <v>89.905418395996094</v>
       </c>
       <c r="H21" s="1">
-        <v>15.511234283447266</v>
+        <v>118.20491027832031</v>
       </c>
     </row>
     <row r="22">
@@ -675,43 +683,35 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1">
-        <v>26516.9375</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1">
-        <v>33384.97265625</v>
+        <v>19.238698959350586</v>
       </c>
       <c r="G22" s="1">
-        <v>53524.9765625</v>
+        <v>17.943864822387695</v>
       </c>
       <c r="H22" s="1">
-        <v>50263.3671875</v>
+        <v>15.511234283447266</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>36.570178985595703</v>
-      </c>
-      <c r="C23" s="1">
-        <v>37.286026000976563</v>
-      </c>
-      <c r="D23" s="1">
-        <v>38.187744140625</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1">
-        <v>39.310688018798828</v>
+        <v>26516.9375</v>
       </c>
       <c r="F23" s="1">
-        <v>40.399639129638672</v>
+        <v>33384.97265625</v>
       </c>
       <c r="G23" s="1">
-        <v>41.062961578369141</v>
+        <v>53524.9765625</v>
       </c>
       <c r="H23" s="1">
-        <v>41.443065643310547</v>
+        <v>50263.3671875</v>
       </c>
     </row>
   </sheetData>

--- a/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>year</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>urban_nr</t>
+  </si>
+  <si>
+    <t>CRP_nr</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -714,6 +717,30 @@
         <v>50263.3671875</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
+        <v>47.928558349609375</v>
+      </c>
+      <c r="D24" s="1">
+        <v>49.377403259277344</v>
+      </c>
+      <c r="E24" s="1">
+        <v>49.933029174804688</v>
+      </c>
+      <c r="F24" s="1">
+        <v>49.675552368164063</v>
+      </c>
+      <c r="G24" s="1">
+        <v>53.196548461914063</v>
+      </c>
+      <c r="H24" s="1">
+        <v>59.803581237792969</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>year</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>CRP_nr</t>
+  </si>
+  <si>
+    <t>pasture_nr</t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -158,6 +161,7 @@
       <c r="H1" s="1">
         <v>2012</v>
       </c>
+      <c r="I1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -184,6 +188,7 @@
       <c r="H2" s="1">
         <v>25.569713592529297</v>
       </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -210,6 +215,7 @@
       <c r="H3" s="1">
         <v>1.6927685737609863</v>
       </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -236,6 +242,7 @@
       <c r="H4" s="1">
         <v>29.170219421386719</v>
       </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -262,6 +269,7 @@
       <c r="H5" s="1">
         <v>8.601323127746582</v>
       </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -288,6 +296,7 @@
       <c r="H6" s="1">
         <v>28.558055877685547</v>
       </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -314,6 +323,7 @@
       <c r="H7" s="1">
         <v>6.4079184532165527</v>
       </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -340,6 +350,7 @@
       <c r="H8" s="1">
         <v>19.762445449829102</v>
       </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -366,6 +377,7 @@
       <c r="H9" s="1">
         <v>1.7579337358474731</v>
       </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -392,6 +404,7 @@
       <c r="H10" s="1">
         <v>17.393085479736328</v>
       </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -418,6 +431,7 @@
       <c r="H11" s="1">
         <v>17.158885955810547</v>
       </c>
+      <c r="I11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -444,6 +458,7 @@
       <c r="H12" s="1">
         <v>11.540319442749023</v>
       </c>
+      <c r="I12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -470,6 +485,7 @@
       <c r="H13" s="1">
         <v>2.0098962783813477</v>
       </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -496,6 +512,7 @@
       <c r="H14" s="1">
         <v>15.323835372924805</v>
       </c>
+      <c r="I14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -522,6 +539,7 @@
       <c r="H15" s="1">
         <v>14.109062194824219</v>
       </c>
+      <c r="I15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -548,6 +566,7 @@
       <c r="H16" s="1">
         <v>0.94453674554824829</v>
       </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -574,6 +593,7 @@
       <c r="H17" s="1">
         <v>19.151020050048828</v>
       </c>
+      <c r="I17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -600,6 +620,7 @@
       <c r="H18" s="1">
         <v>28.69920539855957</v>
       </c>
+      <c r="I18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -626,6 +647,7 @@
       <c r="H19" s="1">
         <v>17.333730697631836</v>
       </c>
+      <c r="I19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -652,6 +674,7 @@
       <c r="H20" s="1">
         <v>15.05359935760498</v>
       </c>
+      <c r="I20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -678,6 +701,7 @@
       <c r="H21" s="1">
         <v>118.20491027832031</v>
       </c>
+      <c r="I21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -696,6 +720,7 @@
       <c r="H22" s="1">
         <v>15.511234283447266</v>
       </c>
+      <c r="I22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -716,6 +741,7 @@
       <c r="H23" s="1">
         <v>50263.3671875</v>
       </c>
+      <c r="I23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -740,6 +766,28 @@
       <c r="H24" s="1">
         <v>59.803581237792969</v>
       </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>13.820106506347656</v>
+      </c>
+      <c r="F25" s="1">
+        <v>14.501720428466797</v>
+      </c>
+      <c r="G25" s="1">
+        <v>17.01146125793457</v>
+      </c>
+      <c r="H25" s="1">
+        <v>17.766544342041016</v>
+      </c>
+      <c r="I25" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
@@ -749,22 +749,22 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
-        <v>47.928558349609375</v>
+        <v>92.0228271484375</v>
       </c>
       <c r="D24" s="1">
-        <v>49.377403259277344</v>
+        <v>76.53497314453125</v>
       </c>
       <c r="E24" s="1">
-        <v>49.933029174804688</v>
+        <v>67.908920288085938</v>
       </c>
       <c r="F24" s="1">
-        <v>49.675552368164063</v>
+        <v>60.107421875</v>
       </c>
       <c r="G24" s="1">
-        <v>53.196548461914063</v>
+        <v>55.856372833251953</v>
       </c>
       <c r="H24" s="1">
-        <v>59.803581237792969</v>
+        <v>55.617328643798828</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -776,16 +776,16 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
-        <v>13.820106506347656</v>
+        <v>18.795343399047852</v>
       </c>
       <c r="F25" s="1">
-        <v>14.501720428466797</v>
+        <v>17.547082901000977</v>
       </c>
       <c r="G25" s="1">
-        <v>17.01146125793457</v>
+        <v>18.402990341186523</v>
       </c>
       <c r="H25" s="1">
-        <v>17.766544342041016</v>
+        <v>16.522886276245117</v>
       </c>
       <c r="I25" s="1"/>
     </row>

--- a/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>year</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>pasture_nr</t>
+  </si>
+  <si>
+    <t>range_nr</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H26"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -161,7 +164,6 @@
       <c r="H1" s="1">
         <v>2012</v>
       </c>
-      <c r="I1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -188,7 +190,6 @@
       <c r="H2" s="1">
         <v>25.569713592529297</v>
       </c>
-      <c r="I2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -215,7 +216,6 @@
       <c r="H3" s="1">
         <v>1.6927685737609863</v>
       </c>
-      <c r="I3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -242,7 +242,6 @@
       <c r="H4" s="1">
         <v>29.170219421386719</v>
       </c>
-      <c r="I4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -269,7 +268,6 @@
       <c r="H5" s="1">
         <v>8.601323127746582</v>
       </c>
-      <c r="I5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -296,7 +294,6 @@
       <c r="H6" s="1">
         <v>28.558055877685547</v>
       </c>
-      <c r="I6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -323,7 +320,6 @@
       <c r="H7" s="1">
         <v>6.4079184532165527</v>
       </c>
-      <c r="I7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -350,7 +346,6 @@
       <c r="H8" s="1">
         <v>19.762445449829102</v>
       </c>
-      <c r="I8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -377,7 +372,6 @@
       <c r="H9" s="1">
         <v>1.7579337358474731</v>
       </c>
-      <c r="I9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -404,7 +398,6 @@
       <c r="H10" s="1">
         <v>17.393085479736328</v>
       </c>
-      <c r="I10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -431,7 +424,6 @@
       <c r="H11" s="1">
         <v>17.158885955810547</v>
       </c>
-      <c r="I11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -458,7 +450,6 @@
       <c r="H12" s="1">
         <v>11.540319442749023</v>
       </c>
-      <c r="I12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -485,7 +476,6 @@
       <c r="H13" s="1">
         <v>2.0098962783813477</v>
       </c>
-      <c r="I13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -512,7 +502,6 @@
       <c r="H14" s="1">
         <v>15.323835372924805</v>
       </c>
-      <c r="I14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -539,7 +528,6 @@
       <c r="H15" s="1">
         <v>14.109062194824219</v>
       </c>
-      <c r="I15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -566,7 +554,6 @@
       <c r="H16" s="1">
         <v>0.94453674554824829</v>
       </c>
-      <c r="I16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -593,7 +580,6 @@
       <c r="H17" s="1">
         <v>19.151020050048828</v>
       </c>
-      <c r="I17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -620,7 +606,6 @@
       <c r="H18" s="1">
         <v>28.69920539855957</v>
       </c>
-      <c r="I18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -647,7 +632,6 @@
       <c r="H19" s="1">
         <v>17.333730697631836</v>
       </c>
-      <c r="I19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -674,7 +658,6 @@
       <c r="H20" s="1">
         <v>15.05359935760498</v>
       </c>
-      <c r="I20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -701,7 +684,6 @@
       <c r="H21" s="1">
         <v>118.20491027832031</v>
       </c>
-      <c r="I21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -720,7 +702,6 @@
       <c r="H22" s="1">
         <v>15.511234283447266</v>
       </c>
-      <c r="I22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -741,7 +722,6 @@
       <c r="H23" s="1">
         <v>50263.3671875</v>
       </c>
-      <c r="I23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -764,9 +744,8 @@
         <v>55.856372833251953</v>
       </c>
       <c r="H24" s="1">
-        <v>55.617328643798828</v>
-      </c>
-      <c r="I24" s="1"/>
+        <v>56.813400268554688</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -785,9 +764,28 @@
         <v>18.402990341186523</v>
       </c>
       <c r="H25" s="1">
-        <v>16.522886276245117</v>
-      </c>
-      <c r="I25" s="1"/>
+        <v>16.878217697143555</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>18.795345306396484</v>
+      </c>
+      <c r="F26" s="1">
+        <v>17.547082901000977</v>
+      </c>
+      <c r="G26" s="1">
+        <v>18.402990341186523</v>
+      </c>
+      <c r="H26" s="1">
+        <v>16.878217697143555</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
@@ -136,7 +136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -164,6 +164,9 @@
       <c r="H1" s="1">
         <v>2012</v>
       </c>
+      <c r="I1" s="1">
+        <v>2015</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -190,6 +193,9 @@
       <c r="H2" s="1">
         <v>25.569713592529297</v>
       </c>
+      <c r="I2" s="1">
+        <v>25.903202056884766</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -216,6 +222,9 @@
       <c r="H3" s="1">
         <v>1.6927685737609863</v>
       </c>
+      <c r="I3" s="1">
+        <v>1.2667135000228882</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -242,6 +251,9 @@
       <c r="H4" s="1">
         <v>29.170219421386719</v>
       </c>
+      <c r="I4" s="1">
+        <v>29.242368698120117</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -268,6 +280,9 @@
       <c r="H5" s="1">
         <v>8.601323127746582</v>
       </c>
+      <c r="I5" s="1">
+        <v>8.5734872817993164</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -294,6 +309,9 @@
       <c r="H6" s="1">
         <v>28.558055877685547</v>
       </c>
+      <c r="I6" s="1">
+        <v>28.506320953369141</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -320,31 +338,37 @@
       <c r="H7" s="1">
         <v>6.4079184532165527</v>
       </c>
+      <c r="I7" s="1">
+        <v>6.5079078674316406</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>17.067520141601563</v>
+        <v>16.768915176391602</v>
       </c>
       <c r="C8" s="1">
-        <v>17.499200820922852</v>
+        <v>16.774328231811523</v>
       </c>
       <c r="D8" s="1">
-        <v>18.012392044067383</v>
+        <v>16.765037536621094</v>
       </c>
       <c r="E8" s="1">
-        <v>18.674884796142578</v>
+        <v>16.766012191772461</v>
       </c>
       <c r="F8" s="1">
-        <v>19.219446182250977</v>
+        <v>16.733757019042969</v>
       </c>
       <c r="G8" s="1">
-        <v>19.564908981323242</v>
+        <v>16.722023010253906</v>
       </c>
       <c r="H8" s="1">
-        <v>19.762445449829102</v>
+        <v>16.715496063232422</v>
+      </c>
+      <c r="I8" s="1">
+        <v>16.715444564819336</v>
       </c>
     </row>
     <row r="9">
@@ -352,25 +376,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1.8498022556304932</v>
+        <v>1.8552695512771606</v>
       </c>
       <c r="C9" s="1">
-        <v>1.84026038646698</v>
+        <v>1.8545185327529907</v>
       </c>
       <c r="D9" s="1">
-        <v>1.8283553123474121</v>
+        <v>1.8525469303131104</v>
       </c>
       <c r="E9" s="1">
-        <v>1.8074460029602051</v>
+        <v>1.8450156450271606</v>
       </c>
       <c r="F9" s="1">
-        <v>1.7846007347106934</v>
+        <v>1.8361639976501465</v>
       </c>
       <c r="G9" s="1">
-        <v>1.7682667970657349</v>
+        <v>1.8287836313247681</v>
       </c>
       <c r="H9" s="1">
-        <v>1.7579337358474731</v>
+        <v>1.8227254152297974</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.8197025060653687</v>
       </c>
     </row>
     <row r="10">
@@ -378,25 +405,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>18.159006118774414</v>
+        <v>18.196645736694336</v>
       </c>
       <c r="C10" s="1">
-        <v>18.041778564453125</v>
+        <v>18.185880661010742</v>
       </c>
       <c r="D10" s="1">
-        <v>17.902816772460938</v>
+        <v>18.167137145996094</v>
       </c>
       <c r="E10" s="1">
-        <v>17.714702606201172</v>
+        <v>18.158349990844727</v>
       </c>
       <c r="F10" s="1">
-        <v>17.562139511108398</v>
+        <v>18.149513244628906</v>
       </c>
       <c r="G10" s="1">
-        <v>17.446975708007813</v>
+        <v>18.124229431152344</v>
       </c>
       <c r="H10" s="1">
-        <v>17.393085479736328</v>
+        <v>18.123319625854492</v>
+      </c>
+      <c r="I10" s="1">
+        <v>18.123176574707031</v>
       </c>
     </row>
     <row r="11">
@@ -404,25 +434,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>17.733888626098633</v>
+        <v>17.783185958862305</v>
       </c>
       <c r="C11" s="1">
-        <v>17.652189254760742</v>
+        <v>17.799587249755859</v>
       </c>
       <c r="D11" s="1">
-        <v>17.539192199707031</v>
+        <v>17.817337036132813</v>
       </c>
       <c r="E11" s="1">
-        <v>17.388608932495117</v>
+        <v>17.83479118347168</v>
       </c>
       <c r="F11" s="1">
-        <v>17.27308464050293</v>
+        <v>17.855457305908203</v>
       </c>
       <c r="G11" s="1">
-        <v>17.203401565551758</v>
+        <v>17.877235412597656</v>
       </c>
       <c r="H11" s="1">
-        <v>17.158885955810547</v>
+        <v>17.882226943969727</v>
+      </c>
+      <c r="I11" s="1">
+        <v>17.884641647338867</v>
       </c>
     </row>
     <row r="12">
@@ -430,25 +463,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>11.981807708740234</v>
+        <v>12.014049530029297</v>
       </c>
       <c r="C12" s="1">
-        <v>11.912814140319824</v>
+        <v>12.01760196685791</v>
       </c>
       <c r="D12" s="1">
-        <v>11.827886581420898</v>
+        <v>12.023721694946289</v>
       </c>
       <c r="E12" s="1">
-        <v>11.712187767028809</v>
+        <v>12.017516136169434</v>
       </c>
       <c r="F12" s="1">
-        <v>11.631661415100098</v>
+        <v>12.02822208404541</v>
       </c>
       <c r="G12" s="1">
-        <v>11.573915481567383</v>
+        <v>12.029709815979004</v>
       </c>
       <c r="H12" s="1">
-        <v>11.540319442749023</v>
+        <v>12.032098770141602</v>
+      </c>
+      <c r="I12" s="1">
+        <v>12.033391952514648</v>
       </c>
     </row>
     <row r="13">
@@ -456,25 +492,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>2.0786952972412109</v>
+        <v>2.0847756862640381</v>
       </c>
       <c r="C13" s="1">
-        <v>2.0652568340301514</v>
+        <v>2.0832056999206543</v>
       </c>
       <c r="D13" s="1">
-        <v>2.0497534275054932</v>
+        <v>2.0810856819152832</v>
       </c>
       <c r="E13" s="1">
-        <v>2.0334107875823975</v>
+        <v>2.0796327590942383</v>
       </c>
       <c r="F13" s="1">
-        <v>2.022348165512085</v>
+        <v>2.0810973644256592</v>
       </c>
       <c r="G13" s="1">
-        <v>2.0134410858154297</v>
+        <v>2.0805275440216064</v>
       </c>
       <c r="H13" s="1">
-        <v>2.0098962783813477</v>
+        <v>2.081218957901001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.0811939239501953</v>
       </c>
     </row>
     <row r="14">
@@ -482,25 +521,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>15.680683135986328</v>
+        <v>15.732243537902832</v>
       </c>
       <c r="C14" s="1">
-        <v>15.60090446472168</v>
+        <v>15.722705841064453</v>
       </c>
       <c r="D14" s="1">
-        <v>15.528441429138184</v>
+        <v>15.72838020324707</v>
       </c>
       <c r="E14" s="1">
-        <v>15.440787315368652</v>
+        <v>15.723287582397461</v>
       </c>
       <c r="F14" s="1">
-        <v>15.376119613647461</v>
+        <v>15.737751960754395</v>
       </c>
       <c r="G14" s="1">
-        <v>15.346802711486816</v>
+        <v>15.755236625671387</v>
       </c>
       <c r="H14" s="1">
-        <v>15.323835372924805</v>
+        <v>15.758761405944824</v>
+      </c>
+      <c r="I14" s="1">
+        <v>15.755876541137695</v>
       </c>
     </row>
     <row r="15">
@@ -508,25 +550,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>14.467199325561523</v>
+        <v>14.565268516540527</v>
       </c>
       <c r="C15" s="1">
-        <v>14.41319465637207</v>
+        <v>14.5625</v>
       </c>
       <c r="D15" s="1">
-        <v>14.346407890319824</v>
+        <v>14.5667724609375</v>
       </c>
       <c r="E15" s="1">
-        <v>14.276509284973145</v>
+        <v>14.577980041503906</v>
       </c>
       <c r="F15" s="1">
-        <v>14.185309410095215</v>
+        <v>14.583365440368652</v>
       </c>
       <c r="G15" s="1">
-        <v>14.138824462890625</v>
+        <v>14.588701248168945</v>
       </c>
       <c r="H15" s="1">
-        <v>14.109062194824219</v>
+        <v>14.59078311920166</v>
+      </c>
+      <c r="I15" s="1">
+        <v>14.59307861328125</v>
       </c>
     </row>
     <row r="16">
@@ -534,25 +579,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.98139834403991699</v>
+        <v>0.99964636564254761</v>
       </c>
       <c r="C16" s="1">
-        <v>0.97440153360366821</v>
+        <v>0.99967110157012939</v>
       </c>
       <c r="D16" s="1">
-        <v>0.96475410461425781</v>
+        <v>0.99798119068145752</v>
       </c>
       <c r="E16" s="1">
-        <v>0.95146316289901733</v>
+        <v>0.99741446971893311</v>
       </c>
       <c r="F16" s="1">
-        <v>0.9452897310256958</v>
+        <v>0.99466949701309204</v>
       </c>
       <c r="G16" s="1">
-        <v>0.94346398115158081</v>
+        <v>0.99355357885360718</v>
       </c>
       <c r="H16" s="1">
-        <v>0.94453674554824829</v>
+        <v>0.99336904287338257</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.99349385499954224</v>
       </c>
     </row>
     <row r="17">
@@ -560,25 +608,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>20.008808135986328</v>
+        <v>20.051916122436523</v>
       </c>
       <c r="C17" s="1">
-        <v>19.882038116455078</v>
+        <v>20.040399551391602</v>
       </c>
       <c r="D17" s="1">
-        <v>19.731172561645508</v>
+        <v>20.019683837890625</v>
       </c>
       <c r="E17" s="1">
-        <v>19.522148132324219</v>
+        <v>20.003364562988281</v>
       </c>
       <c r="F17" s="1">
-        <v>19.34674072265625</v>
+        <v>19.985677719116211</v>
       </c>
       <c r="G17" s="1">
-        <v>19.215242385864258</v>
+        <v>19.953012466430664</v>
       </c>
       <c r="H17" s="1">
-        <v>19.151020050048828</v>
+        <v>19.946044921875</v>
+      </c>
+      <c r="I17" s="1">
+        <v>19.942878723144531</v>
       </c>
     </row>
     <row r="18">
@@ -586,25 +637,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>29.715694427490234</v>
+        <v>29.797235488891602</v>
       </c>
       <c r="C18" s="1">
-        <v>29.56500244140625</v>
+        <v>29.817188262939453</v>
       </c>
       <c r="D18" s="1">
-        <v>29.36707878112793</v>
+        <v>29.841058731079102</v>
       </c>
       <c r="E18" s="1">
-        <v>29.100795745849609</v>
+        <v>29.85230827331543</v>
       </c>
       <c r="F18" s="1">
-        <v>28.904747009277344</v>
+        <v>29.88368034362793</v>
       </c>
       <c r="G18" s="1">
-        <v>28.777317047119141</v>
+        <v>29.906944274902344</v>
       </c>
       <c r="H18" s="1">
-        <v>28.69920539855957</v>
+        <v>29.914325714111328</v>
+      </c>
+      <c r="I18" s="1">
+        <v>29.918033599853516</v>
       </c>
     </row>
     <row r="19">
@@ -612,25 +666,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>17.759378433227539</v>
+        <v>17.817018508911133</v>
       </c>
       <c r="C19" s="1">
-        <v>17.666162490844727</v>
+        <v>17.805912017822266</v>
       </c>
       <c r="D19" s="1">
-        <v>17.578193664550781</v>
+        <v>17.809465408325195</v>
       </c>
       <c r="E19" s="1">
-        <v>17.474197387695313</v>
+        <v>17.802921295166016</v>
       </c>
       <c r="F19" s="1">
-        <v>17.398468017578125</v>
+        <v>17.818849563598633</v>
       </c>
       <c r="G19" s="1">
-        <v>17.360244750976563</v>
+        <v>17.835763931274414</v>
       </c>
       <c r="H19" s="1">
-        <v>17.333730697631836</v>
+        <v>17.839981079101563</v>
+      </c>
+      <c r="I19" s="1">
+        <v>17.837070465087891</v>
       </c>
     </row>
     <row r="20">
@@ -638,25 +695,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>15.448596954345703</v>
+        <v>15.564914703369141</v>
       </c>
       <c r="C20" s="1">
-        <v>15.387596130371094</v>
+        <v>15.56217098236084</v>
       </c>
       <c r="D20" s="1">
-        <v>15.311161994934082</v>
+        <v>15.564753532409668</v>
       </c>
       <c r="E20" s="1">
-        <v>15.227972030639648</v>
+        <v>15.575394630432129</v>
       </c>
       <c r="F20" s="1">
-        <v>15.130599021911621</v>
+        <v>15.578034400939941</v>
       </c>
       <c r="G20" s="1">
-        <v>15.082287788391113</v>
+        <v>15.582255363464355</v>
       </c>
       <c r="H20" s="1">
-        <v>15.05359935760498</v>
+        <v>15.584152221679688</v>
+      </c>
+      <c r="I20" s="1">
+        <v>15.586572647094727</v>
       </c>
     </row>
     <row r="21">
@@ -684,6 +744,7 @@
       <c r="H21" s="1">
         <v>118.20491027832031</v>
       </c>
+      <c r="I21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -702,6 +763,7 @@
       <c r="H22" s="1">
         <v>15.511234283447266</v>
       </c>
+      <c r="I22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -722,6 +784,7 @@
       <c r="H23" s="1">
         <v>50263.3671875</v>
       </c>
+      <c r="I23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -745,6 +808,9 @@
       </c>
       <c r="H24" s="1">
         <v>56.813400268554688</v>
+      </c>
+      <c r="I24" s="1">
+        <v>61.171245574951172</v>
       </c>
     </row>
     <row r="25">
@@ -766,6 +832,9 @@
       <c r="H25" s="1">
         <v>16.878217697143555</v>
       </c>
+      <c r="I25" s="1">
+        <v>16.908662796020508</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -786,6 +855,9 @@
       <c r="H26" s="1">
         <v>16.878217697143555</v>
       </c>
+      <c r="I26" s="1">
+        <v>16.908662796020508</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
@@ -772,19 +772,17 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>26516.9375</v>
-      </c>
-      <c r="F23" s="1">
-        <v>33384.97265625</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1">
-        <v>53524.9765625</v>
+        <v>10400.7021484375</v>
       </c>
       <c r="H23" s="1">
-        <v>50263.3671875</v>
-      </c>
-      <c r="I23" s="1"/>
+        <v>9830.865234375</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8696.31640625</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">

--- a/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans_weighted.xlsx
@@ -773,7 +773,9 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>7025.4150390625</v>
+      </c>
       <c r="G23" s="1">
         <v>10400.7021484375</v>
       </c>
